--- a/PullingStatusTool/bin/Debug/IRCalendar/Target IR Calendar.xlsx
+++ b/PullingStatusTool/bin/Debug/IRCalendar/Target IR Calendar.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="18780" windowHeight="10380"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'IR Calendar'!$A$2:$K$175</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Month# Conversion'!$D$1:$E$27</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -840,27 +840,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="165" formatCode="yyyymmdd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="yyyymmdd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -868,7 +868,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -876,7 +876,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -884,8 +884,15 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -946,36 +953,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1279,32 +1286,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
       <selection activeCell="E363" sqref="E363"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
@@ -1327,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2008</v>
       </c>
@@ -1350,7 +1357,7 @@
         <v>39458</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
@@ -1373,7 +1380,7 @@
         <v>39465</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>2008</v>
       </c>
@@ -1396,7 +1403,7 @@
         <v>39472</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>2008</v>
       </c>
@@ -1419,7 +1426,7 @@
         <v>39479</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>2008</v>
       </c>
@@ -1442,7 +1449,7 @@
         <v>39487</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>2008</v>
       </c>
@@ -1465,7 +1472,7 @@
         <v>39494</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>2008</v>
       </c>
@@ -1488,7 +1495,7 @@
         <v>39501</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>2008</v>
       </c>
@@ -1511,7 +1518,7 @@
         <v>39508</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>2008</v>
       </c>
@@ -1535,7 +1542,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>2008</v>
       </c>
@@ -1558,7 +1565,7 @@
         <v>39522</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>2008</v>
       </c>
@@ -1581,7 +1588,7 @@
         <v>39529</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>2008</v>
       </c>
@@ -1604,7 +1611,7 @@
         <v>39536</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>2008</v>
       </c>
@@ -1627,7 +1634,7 @@
         <v>39543</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>2008</v>
       </c>
@@ -1650,7 +1657,7 @@
         <v>39550</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>2008</v>
       </c>
@@ -1673,7 +1680,7 @@
         <v>39557</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>2008</v>
       </c>
@@ -1696,7 +1703,7 @@
         <v>39564</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>2008</v>
       </c>
@@ -1719,7 +1726,7 @@
         <v>39571</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>2008</v>
       </c>
@@ -1742,7 +1749,7 @@
         <v>39578</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>2008</v>
       </c>
@@ -1765,7 +1772,7 @@
         <v>39585</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>2008</v>
       </c>
@@ -1788,7 +1795,7 @@
         <v>39592</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>2008</v>
       </c>
@@ -1811,7 +1818,7 @@
         <v>39599</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>2008</v>
       </c>
@@ -1834,7 +1841,7 @@
         <v>39606</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>2008</v>
       </c>
@@ -1857,7 +1864,7 @@
         <v>39613</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>2008</v>
       </c>
@@ -1880,7 +1887,7 @@
         <v>39620</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>2008</v>
       </c>
@@ -1903,7 +1910,7 @@
         <v>39627</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>2008</v>
       </c>
@@ -1926,7 +1933,7 @@
         <v>39634</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>2008</v>
       </c>
@@ -1949,7 +1956,7 @@
         <v>39641</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>2008</v>
       </c>
@@ -1972,7 +1979,7 @@
         <v>39648</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>2008</v>
       </c>
@@ -1995,7 +2002,7 @@
         <v>39655</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>2008</v>
       </c>
@@ -2018,7 +2025,7 @@
         <v>39662</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>2008</v>
       </c>
@@ -2041,7 +2048,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>2008</v>
       </c>
@@ -2064,7 +2071,7 @@
         <v>39676</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>2008</v>
       </c>
@@ -2087,7 +2094,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>2008</v>
       </c>
@@ -2110,7 +2117,7 @@
         <v>39690</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>2008</v>
       </c>
@@ -2133,7 +2140,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>2008</v>
       </c>
@@ -2156,7 +2163,7 @@
         <v>39704</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>2008</v>
       </c>
@@ -2179,7 +2186,7 @@
         <v>39711</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>2008</v>
       </c>
@@ -2202,7 +2209,7 @@
         <v>39718</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>2008</v>
       </c>
@@ -2225,7 +2232,7 @@
         <v>39725</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>2008</v>
       </c>
@@ -2248,7 +2255,7 @@
         <v>39732</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>2008</v>
       </c>
@@ -2271,7 +2278,7 @@
         <v>39739</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>2008</v>
       </c>
@@ -2294,7 +2301,7 @@
         <v>39746</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>2008</v>
       </c>
@@ -2317,7 +2324,7 @@
         <v>39753</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>2008</v>
       </c>
@@ -2340,7 +2347,7 @@
         <v>39760</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>2008</v>
       </c>
@@ -2363,7 +2370,7 @@
         <v>39767</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>2008</v>
       </c>
@@ -2386,7 +2393,7 @@
         <v>39774</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>2008</v>
       </c>
@@ -2409,7 +2416,7 @@
         <v>39781</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>2008</v>
       </c>
@@ -2432,7 +2439,7 @@
         <v>39788</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>2008</v>
       </c>
@@ -2455,7 +2462,7 @@
         <v>39795</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>2008</v>
       </c>
@@ -2478,7 +2485,7 @@
         <v>39802</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>2008</v>
       </c>
@@ -2501,7 +2508,7 @@
         <v>39809</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>2008</v>
       </c>
@@ -2524,7 +2531,7 @@
         <v>39816</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>2009</v>
       </c>
@@ -2547,7 +2554,7 @@
         <v>39823</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>2009</v>
       </c>
@@ -2570,7 +2577,7 @@
         <v>39830</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>2009</v>
       </c>
@@ -2593,7 +2600,7 @@
         <v>39837</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>2009</v>
       </c>
@@ -2616,7 +2623,7 @@
         <v>39844</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>2009</v>
       </c>
@@ -2639,7 +2646,7 @@
         <v>39851</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>2009</v>
       </c>
@@ -2662,7 +2669,7 @@
         <v>39858</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>2009</v>
       </c>
@@ -2685,7 +2692,7 @@
         <v>39865</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>2009</v>
       </c>
@@ -2708,7 +2715,7 @@
         <v>39872</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>2009</v>
       </c>
@@ -2731,7 +2738,7 @@
         <v>39879</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>2009</v>
       </c>
@@ -2754,7 +2761,7 @@
         <v>39886</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>2009</v>
       </c>
@@ -2777,7 +2784,7 @@
         <v>39893</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>2009</v>
       </c>
@@ -2800,7 +2807,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>2009</v>
       </c>
@@ -2823,7 +2830,7 @@
         <v>39907</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>2009</v>
       </c>
@@ -2846,7 +2853,7 @@
         <v>39914</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>2009</v>
       </c>
@@ -2869,7 +2876,7 @@
         <v>39921</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="8">
         <v>2009</v>
       </c>
@@ -2892,7 +2899,7 @@
         <v>39928</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="8">
         <v>2009</v>
       </c>
@@ -2915,7 +2922,7 @@
         <v>39935</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>2009</v>
       </c>
@@ -2938,7 +2945,7 @@
         <v>39942</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>2009</v>
       </c>
@@ -2961,7 +2968,7 @@
         <v>39949</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>2009</v>
       </c>
@@ -2984,7 +2991,7 @@
         <v>39956</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>2009</v>
       </c>
@@ -3007,7 +3014,7 @@
         <v>39963</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>2009</v>
       </c>
@@ -3030,7 +3037,7 @@
         <v>39970</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>2009</v>
       </c>
@@ -3053,7 +3060,7 @@
         <v>39977</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>2009</v>
       </c>
@@ -3076,7 +3083,7 @@
         <v>39984</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>2009</v>
       </c>
@@ -3099,7 +3106,7 @@
         <v>39991</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>2009</v>
       </c>
@@ -3122,7 +3129,7 @@
         <v>39998</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>2009</v>
       </c>
@@ -3145,7 +3152,7 @@
         <v>40005</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>2009</v>
       </c>
@@ -3168,7 +3175,7 @@
         <v>40012</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>2009</v>
       </c>
@@ -3191,7 +3198,7 @@
         <v>40019</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>2009</v>
       </c>
@@ -3214,7 +3221,7 @@
         <v>40026</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>2009</v>
       </c>
@@ -3237,7 +3244,7 @@
         <v>40033</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>2009</v>
       </c>
@@ -3260,7 +3267,7 @@
         <v>40040</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>2009</v>
       </c>
@@ -3283,7 +3290,7 @@
         <v>40047</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>2009</v>
       </c>
@@ -3306,7 +3313,7 @@
         <v>40054</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>2009</v>
       </c>
@@ -3329,7 +3336,7 @@
         <v>40061</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>2009</v>
       </c>
@@ -3352,7 +3359,7 @@
         <v>40068</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>2009</v>
       </c>
@@ -3375,7 +3382,7 @@
         <v>40075</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>2009</v>
       </c>
@@ -3398,7 +3405,7 @@
         <v>40082</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>2009</v>
       </c>
@@ -3421,7 +3428,7 @@
         <v>40089</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>2009</v>
       </c>
@@ -3444,7 +3451,7 @@
         <v>40096</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>2009</v>
       </c>
@@ -3467,7 +3474,7 @@
         <v>40103</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>2009</v>
       </c>
@@ -3490,7 +3497,7 @@
         <v>40110</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>2009</v>
       </c>
@@ -3513,7 +3520,7 @@
         <v>40117</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>2009</v>
       </c>
@@ -3536,7 +3543,7 @@
         <v>40124</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>2009</v>
       </c>
@@ -3559,7 +3566,7 @@
         <v>40131</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>2009</v>
       </c>
@@ -3582,7 +3589,7 @@
         <v>40138</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="4">
         <v>2009</v>
       </c>
@@ -3605,7 +3612,7 @@
         <v>40145</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="4">
         <v>2009</v>
       </c>
@@ -3628,7 +3635,7 @@
         <v>40152</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="4">
         <v>2009</v>
       </c>
@@ -3651,7 +3658,7 @@
         <v>40159</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="4">
         <v>2009</v>
       </c>
@@ -3674,7 +3681,7 @@
         <v>40166</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="4">
         <v>2009</v>
       </c>
@@ -3697,7 +3704,7 @@
         <v>40173</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="4">
         <v>2009</v>
       </c>
@@ -3720,7 +3727,7 @@
         <v>40180</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="4">
         <v>2010</v>
       </c>
@@ -3743,7 +3750,7 @@
         <v>40187</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="4">
         <v>2010</v>
       </c>
@@ -3766,7 +3773,7 @@
         <v>40194</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="4">
         <v>2010</v>
       </c>
@@ -3789,7 +3796,7 @@
         <v>40201</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="4">
         <v>2010</v>
       </c>
@@ -3812,7 +3819,7 @@
         <v>40208</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="4">
         <v>2010</v>
       </c>
@@ -3835,7 +3842,7 @@
         <v>40215</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="4">
         <v>2010</v>
       </c>
@@ -3858,7 +3865,7 @@
         <v>40222</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" s="4">
         <v>2010</v>
       </c>
@@ -3881,7 +3888,7 @@
         <v>40229</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" s="4">
         <v>2010</v>
       </c>
@@ -3904,7 +3911,7 @@
         <v>40236</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="4">
         <v>2010</v>
       </c>
@@ -3927,7 +3934,7 @@
         <v>40243</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" s="4">
         <v>2010</v>
       </c>
@@ -3950,7 +3957,7 @@
         <v>40250</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
         <v>2010</v>
       </c>
@@ -3973,7 +3980,7 @@
         <v>40257</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" s="4">
         <v>2010</v>
       </c>
@@ -3996,7 +4003,7 @@
         <v>40264</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" s="4">
         <v>2010</v>
       </c>
@@ -4019,7 +4026,7 @@
         <v>40271</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" s="4">
         <v>2010</v>
       </c>
@@ -4042,7 +4049,7 @@
         <v>40278</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" s="4">
         <v>2010</v>
       </c>
@@ -4065,7 +4072,7 @@
         <v>40285</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" s="4">
         <v>2010</v>
       </c>
@@ -4088,7 +4095,7 @@
         <v>40292</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" s="4">
         <v>2010</v>
       </c>
@@ -4111,7 +4118,7 @@
         <v>40299</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" s="4">
         <v>2010</v>
       </c>
@@ -4134,7 +4141,7 @@
         <v>40306</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" s="4">
         <v>2010</v>
       </c>
@@ -4157,7 +4164,7 @@
         <v>40313</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" s="4">
         <v>2010</v>
       </c>
@@ -4180,7 +4187,7 @@
         <v>40320</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" s="4">
         <v>2010</v>
       </c>
@@ -4203,7 +4210,7 @@
         <v>40327</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" s="4">
         <v>2010</v>
       </c>
@@ -4226,7 +4233,7 @@
         <v>40334</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" s="4">
         <v>2010</v>
       </c>
@@ -4249,7 +4256,7 @@
         <v>40341</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" s="4">
         <v>2010</v>
       </c>
@@ -4272,7 +4279,7 @@
         <v>40348</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" s="4">
         <v>2010</v>
       </c>
@@ -4295,7 +4302,7 @@
         <v>40355</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" s="4">
         <v>2010</v>
       </c>
@@ -4318,7 +4325,7 @@
         <v>40362</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" s="4">
         <v>2010</v>
       </c>
@@ -4341,7 +4348,7 @@
         <v>40369</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" s="4">
         <v>2010</v>
       </c>
@@ -4364,7 +4371,7 @@
         <v>40376</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" s="4">
         <v>2010</v>
       </c>
@@ -4387,7 +4394,7 @@
         <v>40383</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" s="4">
         <v>2010</v>
       </c>
@@ -4410,7 +4417,7 @@
         <v>40390</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" s="4">
         <v>2010</v>
       </c>
@@ -4433,7 +4440,7 @@
         <v>40397</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" s="4">
         <v>2010</v>
       </c>
@@ -4456,7 +4463,7 @@
         <v>40404</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" s="4">
         <v>2010</v>
       </c>
@@ -4479,7 +4486,7 @@
         <v>40411</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" s="4">
         <v>2010</v>
       </c>
@@ -4502,7 +4509,7 @@
         <v>40418</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141" s="4">
         <v>2010</v>
       </c>
@@ -4525,7 +4532,7 @@
         <v>40425</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" s="4">
         <v>2010</v>
       </c>
@@ -4548,7 +4555,7 @@
         <v>40432</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" s="4">
         <v>2010</v>
       </c>
@@ -4571,7 +4578,7 @@
         <v>40439</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" s="4">
         <v>2010</v>
       </c>
@@ -4594,7 +4601,7 @@
         <v>40446</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" s="4">
         <v>2010</v>
       </c>
@@ -4617,7 +4624,7 @@
         <v>40453</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="4">
         <v>2010</v>
       </c>
@@ -4640,7 +4647,7 @@
         <v>40460</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="4">
         <v>2010</v>
       </c>
@@ -4663,7 +4670,7 @@
         <v>40467</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="4">
         <v>2010</v>
       </c>
@@ -4686,7 +4693,7 @@
         <v>40474</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" s="4">
         <v>2010</v>
       </c>
@@ -4709,7 +4716,7 @@
         <v>40481</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" s="4">
         <v>2010</v>
       </c>
@@ -4732,7 +4739,7 @@
         <v>40488</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" s="4">
         <v>2010</v>
       </c>
@@ -4755,7 +4762,7 @@
         <v>40495</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" s="4">
         <v>2010</v>
       </c>
@@ -4778,7 +4785,7 @@
         <v>40502</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" s="4">
         <v>2010</v>
       </c>
@@ -4801,7 +4808,7 @@
         <v>40509</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154" s="4">
         <v>2010</v>
       </c>
@@ -4824,7 +4831,7 @@
         <v>40516</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" s="4">
         <v>2010</v>
       </c>
@@ -4847,7 +4854,7 @@
         <v>40523</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" s="4">
         <v>2010</v>
       </c>
@@ -4870,7 +4877,7 @@
         <v>40530</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" s="4">
         <v>2010</v>
       </c>
@@ -4893,7 +4900,7 @@
         <v>40537</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" s="4">
         <v>2010</v>
       </c>
@@ -4916,7 +4923,7 @@
         <v>40544</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="4">
         <v>2011</v>
       </c>
@@ -4939,7 +4946,7 @@
         <v>40551</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" s="4">
         <v>2011</v>
       </c>
@@ -4962,7 +4969,7 @@
         <v>40558</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" s="4">
         <v>2011</v>
       </c>
@@ -4985,7 +4992,7 @@
         <v>40565</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" s="4">
         <v>2011</v>
       </c>
@@ -5008,7 +5015,7 @@
         <v>40572</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" s="4">
         <v>2011</v>
       </c>
@@ -5031,7 +5038,7 @@
         <v>40579</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="4">
         <v>2011</v>
       </c>
@@ -5054,7 +5061,7 @@
         <v>40586</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" s="4">
         <v>2011</v>
       </c>
@@ -5077,7 +5084,7 @@
         <v>40593</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" s="4">
         <v>2011</v>
       </c>
@@ -5100,7 +5107,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167" s="4">
         <v>2011</v>
       </c>
@@ -5123,7 +5130,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" s="4">
         <v>2011</v>
       </c>
@@ -5146,7 +5153,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169" s="4">
         <v>2011</v>
       </c>
@@ -5169,7 +5176,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170" s="4">
         <v>2011</v>
       </c>
@@ -5192,7 +5199,7 @@
         <v>40628</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171" s="4">
         <v>2011</v>
       </c>
@@ -5215,7 +5222,7 @@
         <v>40635</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172" s="4">
         <v>2011</v>
       </c>
@@ -5238,7 +5245,7 @@
         <v>40642</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A173" s="4">
         <v>2011</v>
       </c>
@@ -5261,7 +5268,7 @@
         <v>40649</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" s="4">
         <v>2011</v>
       </c>
@@ -5284,7 +5291,7 @@
         <v>40656</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" s="4">
         <v>2011</v>
       </c>
@@ -5307,7 +5314,7 @@
         <v>40663</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" s="4">
         <v>2011</v>
       </c>
@@ -5330,7 +5337,7 @@
         <v>40670</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" s="4">
         <v>2011</v>
       </c>
@@ -5353,7 +5360,7 @@
         <v>40677</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" s="4">
         <v>2011</v>
       </c>
@@ -5376,7 +5383,7 @@
         <v>40684</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" s="4">
         <v>2011</v>
       </c>
@@ -5399,7 +5406,7 @@
         <v>40691</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" s="4">
         <v>2011</v>
       </c>
@@ -5422,7 +5429,7 @@
         <v>40698</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" s="4">
         <v>2011</v>
       </c>
@@ -5445,7 +5452,7 @@
         <v>40705</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" s="4">
         <v>2011</v>
       </c>
@@ -5468,7 +5475,7 @@
         <v>40712</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" s="4">
         <v>2011</v>
       </c>
@@ -5491,7 +5498,7 @@
         <v>40719</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" s="4">
         <v>2011</v>
       </c>
@@ -5514,7 +5521,7 @@
         <v>40726</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" s="4">
         <v>2011</v>
       </c>
@@ -5537,7 +5544,7 @@
         <v>40733</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" s="4">
         <v>2011</v>
       </c>
@@ -5560,7 +5567,7 @@
         <v>40740</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187" s="4">
         <v>2011</v>
       </c>
@@ -5583,7 +5590,7 @@
         <v>40747</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" s="4">
         <v>2011</v>
       </c>
@@ -5606,7 +5613,7 @@
         <v>40754</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189" s="4">
         <v>2011</v>
       </c>
@@ -5629,7 +5636,7 @@
         <v>40761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A190" s="4">
         <v>2011</v>
       </c>
@@ -5652,7 +5659,7 @@
         <v>40768</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191" s="4">
         <v>2011</v>
       </c>
@@ -5675,7 +5682,7 @@
         <v>40775</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192" s="4">
         <v>2011</v>
       </c>
@@ -5698,7 +5705,7 @@
         <v>40782</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A193" s="4">
         <v>2011</v>
       </c>
@@ -5721,7 +5728,7 @@
         <v>40789</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194" s="4">
         <v>2011</v>
       </c>
@@ -5744,7 +5751,7 @@
         <v>40796</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195" s="4">
         <v>2011</v>
       </c>
@@ -5767,7 +5774,7 @@
         <v>40803</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" s="4">
         <v>2011</v>
       </c>
@@ -5790,7 +5797,7 @@
         <v>40810</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" s="4">
         <v>2011</v>
       </c>
@@ -5813,7 +5820,7 @@
         <v>40817</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198" s="4">
         <v>2011</v>
       </c>
@@ -5836,7 +5843,7 @@
         <v>40824</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199" s="4">
         <v>2011</v>
       </c>
@@ -5859,7 +5866,7 @@
         <v>40831</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200" s="4">
         <v>2011</v>
       </c>
@@ -5882,7 +5889,7 @@
         <v>40838</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A201" s="4">
         <v>2011</v>
       </c>
@@ -5905,7 +5912,7 @@
         <v>40845</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A202" s="4">
         <v>2011</v>
       </c>
@@ -5928,7 +5935,7 @@
         <v>40852</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A203" s="4">
         <v>2011</v>
       </c>
@@ -5951,7 +5958,7 @@
         <v>40859</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A204" s="4">
         <v>2011</v>
       </c>
@@ -5974,7 +5981,7 @@
         <v>40866</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A205" s="4">
         <v>2011</v>
       </c>
@@ -5997,7 +6004,7 @@
         <v>40873</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A206" s="4">
         <v>2011</v>
       </c>
@@ -6020,7 +6027,7 @@
         <v>40880</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A207" s="4">
         <v>2011</v>
       </c>
@@ -6043,7 +6050,7 @@
         <v>40887</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A208" s="4">
         <v>2011</v>
       </c>
@@ -6066,7 +6073,7 @@
         <v>40894</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A209" s="4">
         <v>2011</v>
       </c>
@@ -6089,7 +6096,7 @@
         <v>40901</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A210" s="4">
         <v>2011</v>
       </c>
@@ -6112,7 +6119,7 @@
         <v>40908</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A211" s="17">
         <v>2012</v>
       </c>
@@ -6135,7 +6142,7 @@
         <v>40915</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A212" s="17">
         <v>2012</v>
       </c>
@@ -6158,7 +6165,7 @@
         <v>40922</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A213" s="17">
         <v>2012</v>
       </c>
@@ -6181,7 +6188,7 @@
         <v>40929</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A214" s="17">
         <v>2012</v>
       </c>
@@ -6204,7 +6211,7 @@
         <v>40936</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A215" s="17">
         <v>2012</v>
       </c>
@@ -6227,7 +6234,7 @@
         <v>40943</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A216" s="17">
         <v>2012</v>
       </c>
@@ -6250,7 +6257,7 @@
         <v>40950</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A217" s="17">
         <v>2012</v>
       </c>
@@ -6273,7 +6280,7 @@
         <v>40957</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A218" s="17">
         <v>2012</v>
       </c>
@@ -6296,7 +6303,7 @@
         <v>40964</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A219" s="17">
         <v>2012</v>
       </c>
@@ -6319,7 +6326,7 @@
         <v>40971</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A220" s="17">
         <v>2012</v>
       </c>
@@ -6342,7 +6349,7 @@
         <v>40978</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A221" s="17">
         <v>2012</v>
       </c>
@@ -6365,7 +6372,7 @@
         <v>40985</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A222" s="17">
         <v>2012</v>
       </c>
@@ -6388,7 +6395,7 @@
         <v>40992</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A223" s="17">
         <v>2012</v>
       </c>
@@ -6411,7 +6418,7 @@
         <v>40999</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A224" s="17">
         <v>2012</v>
       </c>
@@ -6434,7 +6441,7 @@
         <v>41006</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A225" s="17">
         <v>2012</v>
       </c>
@@ -6457,7 +6464,7 @@
         <v>41013</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A226" s="17">
         <v>2012</v>
       </c>
@@ -6480,7 +6487,7 @@
         <v>41020</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A227" s="17">
         <v>2012</v>
       </c>
@@ -6503,7 +6510,7 @@
         <v>41027</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A228" s="17">
         <v>2012</v>
       </c>
@@ -6526,7 +6533,7 @@
         <v>41034</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A229" s="17">
         <v>2012</v>
       </c>
@@ -6549,7 +6556,7 @@
         <v>41041</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A230" s="17">
         <v>2012</v>
       </c>
@@ -6572,7 +6579,7 @@
         <v>41048</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A231" s="17">
         <v>2012</v>
       </c>
@@ -6595,7 +6602,7 @@
         <v>41055</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A232" s="17">
         <v>2012</v>
       </c>
@@ -6618,7 +6625,7 @@
         <v>41062</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A233" s="17">
         <v>2012</v>
       </c>
@@ -6641,7 +6648,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A234" s="17">
         <v>2012</v>
       </c>
@@ -6664,7 +6671,7 @@
         <v>41076</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A235" s="17">
         <v>2012</v>
       </c>
@@ -6687,7 +6694,7 @@
         <v>41083</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A236" s="17">
         <v>2012</v>
       </c>
@@ -6710,7 +6717,7 @@
         <v>41090</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A237" s="17">
         <v>2012</v>
       </c>
@@ -6733,7 +6740,7 @@
         <v>41097</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A238" s="17">
         <v>2012</v>
       </c>
@@ -6756,7 +6763,7 @@
         <v>41104</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A239" s="17">
         <v>2012</v>
       </c>
@@ -6779,7 +6786,7 @@
         <v>41111</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A240" s="17">
         <v>2012</v>
       </c>
@@ -6802,7 +6809,7 @@
         <v>41118</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A241" s="17">
         <v>2012</v>
       </c>
@@ -6825,7 +6832,7 @@
         <v>41125</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A242" s="17">
         <v>2012</v>
       </c>
@@ -6848,7 +6855,7 @@
         <v>41132</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A243" s="17">
         <v>2012</v>
       </c>
@@ -6871,7 +6878,7 @@
         <v>41139</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A244" s="17">
         <v>2012</v>
       </c>
@@ -6894,7 +6901,7 @@
         <v>41146</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A245" s="17">
         <v>2012</v>
       </c>
@@ -6917,7 +6924,7 @@
         <v>41153</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A246" s="17">
         <v>2012</v>
       </c>
@@ -6940,7 +6947,7 @@
         <v>41160</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A247" s="17">
         <v>2012</v>
       </c>
@@ -6963,7 +6970,7 @@
         <v>41167</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A248" s="17">
         <v>2012</v>
       </c>
@@ -6986,7 +6993,7 @@
         <v>41174</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A249" s="17">
         <v>2012</v>
       </c>
@@ -7009,7 +7016,7 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A250" s="17">
         <v>2012</v>
       </c>
@@ -7032,7 +7039,7 @@
         <v>41188</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A251" s="17">
         <v>2012</v>
       </c>
@@ -7055,7 +7062,7 @@
         <v>41195</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A252" s="17">
         <v>2012</v>
       </c>
@@ -7078,7 +7085,7 @@
         <v>41202</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A253" s="17">
         <v>2012</v>
       </c>
@@ -7101,7 +7108,7 @@
         <v>41209</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A254" s="17">
         <v>2012</v>
       </c>
@@ -7124,7 +7131,7 @@
         <v>41216</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A255" s="17">
         <v>2012</v>
       </c>
@@ -7147,7 +7154,7 @@
         <v>41223</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A256" s="17">
         <v>2012</v>
       </c>
@@ -7170,7 +7177,7 @@
         <v>41230</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A257" s="17">
         <v>2012</v>
       </c>
@@ -7193,7 +7200,7 @@
         <v>41237</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A258" s="17">
         <v>2012</v>
       </c>
@@ -7216,7 +7223,7 @@
         <v>41244</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A259" s="17">
         <v>2012</v>
       </c>
@@ -7239,7 +7246,7 @@
         <v>41251</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A260" s="17">
         <v>2012</v>
       </c>
@@ -7262,7 +7269,7 @@
         <v>41258</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A261" s="17">
         <v>2012</v>
       </c>
@@ -7285,7 +7292,7 @@
         <v>41265</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A262" s="17">
         <v>2012</v>
       </c>
@@ -7308,7 +7315,7 @@
         <v>41272</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A263" s="17">
         <v>2013</v>
       </c>
@@ -7331,7 +7338,7 @@
         <v>41279</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A264" s="17">
         <v>2013</v>
       </c>
@@ -7354,7 +7361,7 @@
         <v>41286</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A265" s="17">
         <v>2013</v>
       </c>
@@ -7377,7 +7384,7 @@
         <v>41293</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A266" s="17">
         <v>2013</v>
       </c>
@@ -7400,7 +7407,7 @@
         <v>41300</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A267" s="17">
         <v>2013</v>
       </c>
@@ -7423,7 +7430,7 @@
         <v>41307</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A268" s="17">
         <v>2013</v>
       </c>
@@ -7446,7 +7453,7 @@
         <v>41314</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A269" s="17">
         <v>2013</v>
       </c>
@@ -7469,7 +7476,7 @@
         <v>41321</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A270" s="17">
         <v>2013</v>
       </c>
@@ -7492,7 +7499,7 @@
         <v>41328</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A271" s="17">
         <v>2013</v>
       </c>
@@ -7515,7 +7522,7 @@
         <v>41335</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A272" s="17">
         <v>2013</v>
       </c>
@@ -7538,7 +7545,7 @@
         <v>41342</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A273" s="17">
         <v>2013</v>
       </c>
@@ -7561,7 +7568,7 @@
         <v>41349</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A274" s="17">
         <v>2013</v>
       </c>
@@ -7584,7 +7591,7 @@
         <v>41356</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A275" s="17">
         <v>2013</v>
       </c>
@@ -7607,7 +7614,7 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A276" s="17">
         <v>2013</v>
       </c>
@@ -7630,7 +7637,7 @@
         <v>41370</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A277" s="17">
         <v>2013</v>
       </c>
@@ -7653,7 +7660,7 @@
         <v>41377</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A278" s="17">
         <v>2013</v>
       </c>
@@ -7676,7 +7683,7 @@
         <v>41384</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A279" s="17">
         <v>2013</v>
       </c>
@@ -7699,7 +7706,7 @@
         <v>41391</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A280" s="17">
         <v>2013</v>
       </c>
@@ -7722,7 +7729,7 @@
         <v>41398</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A281" s="17">
         <v>2013</v>
       </c>
@@ -7745,7 +7752,7 @@
         <v>41405</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A282" s="17">
         <v>2013</v>
       </c>
@@ -7768,7 +7775,7 @@
         <v>41412</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A283" s="17">
         <v>2013</v>
       </c>
@@ -7791,7 +7798,7 @@
         <v>41419</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A284" s="17">
         <v>2013</v>
       </c>
@@ -7814,7 +7821,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A285" s="17">
         <v>2013</v>
       </c>
@@ -7837,7 +7844,7 @@
         <v>41433</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A286" s="17">
         <v>2013</v>
       </c>
@@ -7860,7 +7867,7 @@
         <v>41440</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A287" s="17">
         <v>2013</v>
       </c>
@@ -7883,7 +7890,7 @@
         <v>41447</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A288" s="17">
         <v>2013</v>
       </c>
@@ -7906,7 +7913,7 @@
         <v>41454</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A289" s="17">
         <v>2013</v>
       </c>
@@ -7929,7 +7936,7 @@
         <v>41461</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A290" s="17">
         <v>2013</v>
       </c>
@@ -7952,7 +7959,7 @@
         <v>41468</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A291" s="17">
         <v>2013</v>
       </c>
@@ -7975,7 +7982,7 @@
         <v>41475</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A292" s="17">
         <v>2013</v>
       </c>
@@ -7998,7 +8005,7 @@
         <v>41482</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A293" s="17">
         <v>2013</v>
       </c>
@@ -8021,7 +8028,7 @@
         <v>41489</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A294" s="17">
         <v>2013</v>
       </c>
@@ -8044,7 +8051,7 @@
         <v>41496</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A295" s="17">
         <v>2013</v>
       </c>
@@ -8067,7 +8074,7 @@
         <v>41503</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A296" s="17">
         <v>2013</v>
       </c>
@@ -8090,7 +8097,7 @@
         <v>41510</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A297" s="17">
         <v>2013</v>
       </c>
@@ -8113,7 +8120,7 @@
         <v>41517</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A298" s="17">
         <v>2013</v>
       </c>
@@ -8136,7 +8143,7 @@
         <v>41524</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A299" s="17">
         <v>2013</v>
       </c>
@@ -8159,7 +8166,7 @@
         <v>41531</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A300" s="17">
         <v>2013</v>
       </c>
@@ -8182,7 +8189,7 @@
         <v>41538</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A301" s="17">
         <v>2013</v>
       </c>
@@ -8205,7 +8212,7 @@
         <v>41545</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A302" s="17">
         <v>2013</v>
       </c>
@@ -8228,7 +8235,7 @@
         <v>41552</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A303" s="17">
         <v>2013</v>
       </c>
@@ -8251,7 +8258,7 @@
         <v>41559</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A304" s="17">
         <v>2013</v>
       </c>
@@ -8274,7 +8281,7 @@
         <v>41566</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A305" s="17">
         <v>2013</v>
       </c>
@@ -8297,7 +8304,7 @@
         <v>41573</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A306" s="17">
         <v>2013</v>
       </c>
@@ -8320,7 +8327,7 @@
         <v>41580</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A307" s="17">
         <v>2013</v>
       </c>
@@ -8343,7 +8350,7 @@
         <v>41587</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A308" s="17">
         <v>2013</v>
       </c>
@@ -8366,7 +8373,7 @@
         <v>41594</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A309" s="17">
         <v>2013</v>
       </c>
@@ -8389,7 +8396,7 @@
         <v>41601</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A310" s="17">
         <v>2013</v>
       </c>
@@ -8412,7 +8419,7 @@
         <v>41608</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A311" s="17">
         <v>2013</v>
       </c>
@@ -8435,7 +8442,7 @@
         <v>41615</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A312" s="17">
         <v>2013</v>
       </c>
@@ -8458,7 +8465,7 @@
         <v>41622</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A313" s="17">
         <v>2013</v>
       </c>
@@ -8481,7 +8488,7 @@
         <v>41629</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A314" s="17">
         <v>2013</v>
       </c>
@@ -8504,7 +8511,7 @@
         <v>41636</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A315" s="17">
         <v>2013</v>
       </c>
@@ -8527,7 +8534,7 @@
         <v>41643</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A316" s="17">
         <v>2014</v>
       </c>
@@ -8550,7 +8557,7 @@
         <v>41650</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A317" s="17">
         <v>2014</v>
       </c>
@@ -8573,7 +8580,7 @@
         <v>41657</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A318" s="17">
         <v>2014</v>
       </c>
@@ -8596,7 +8603,7 @@
         <v>41664</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A319" s="17">
         <v>2014</v>
       </c>
@@ -8619,7 +8626,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A320" s="17">
         <v>2014</v>
       </c>
@@ -8642,7 +8649,7 @@
         <v>41678</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A321" s="17">
         <v>2014</v>
       </c>
@@ -8665,7 +8672,7 @@
         <v>41685</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A322" s="17">
         <v>2014</v>
       </c>
@@ -8688,7 +8695,7 @@
         <v>41692</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A323" s="17">
         <v>2014</v>
       </c>
@@ -8711,7 +8718,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A324" s="17">
         <v>2014</v>
       </c>
@@ -8734,7 +8741,7 @@
         <v>41706</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A325" s="17">
         <v>2014</v>
       </c>
@@ -8757,7 +8764,7 @@
         <v>41713</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A326" s="17">
         <v>2014</v>
       </c>
@@ -8780,7 +8787,7 @@
         <v>41720</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A327" s="17">
         <v>2014</v>
       </c>
@@ -8803,7 +8810,7 @@
         <v>41727</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A328" s="17">
         <v>2014</v>
       </c>
@@ -8826,7 +8833,7 @@
         <v>41734</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A329" s="17">
         <v>2014</v>
       </c>
@@ -8849,7 +8856,7 @@
         <v>41741</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A330" s="17">
         <v>2014</v>
       </c>
@@ -8872,7 +8879,7 @@
         <v>41748</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A331" s="17">
         <v>2014</v>
       </c>
@@ -8895,7 +8902,7 @@
         <v>41755</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A332" s="17">
         <v>2014</v>
       </c>
@@ -8918,7 +8925,7 @@
         <v>41762</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A333" s="17">
         <v>2014</v>
       </c>
@@ -8941,7 +8948,7 @@
         <v>41769</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A334" s="17">
         <v>2014</v>
       </c>
@@ -8964,7 +8971,7 @@
         <v>41776</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A335" s="17">
         <v>2014</v>
       </c>
@@ -8987,7 +8994,7 @@
         <v>41783</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A336" s="17">
         <v>2014</v>
       </c>
@@ -9010,7 +9017,7 @@
         <v>41790</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A337" s="17">
         <v>2014</v>
       </c>
@@ -9033,7 +9040,7 @@
         <v>41797</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A338" s="17">
         <v>2014</v>
       </c>
@@ -9056,7 +9063,7 @@
         <v>41804</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A339" s="17">
         <v>2014</v>
       </c>
@@ -9079,7 +9086,7 @@
         <v>41811</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A340" s="17">
         <v>2014</v>
       </c>
@@ -9102,7 +9109,7 @@
         <v>41818</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A341" s="17">
         <v>2014</v>
       </c>
@@ -9125,7 +9132,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A342" s="17">
         <v>2014</v>
       </c>
@@ -9148,7 +9155,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A343" s="17">
         <v>2014</v>
       </c>
@@ -9171,7 +9178,7 @@
         <v>41839</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A344" s="17">
         <v>2014</v>
       </c>
@@ -9194,7 +9201,7 @@
         <v>41846</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A345" s="17">
         <v>2014</v>
       </c>
@@ -9217,7 +9224,7 @@
         <v>41853</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A346" s="17">
         <v>2014</v>
       </c>
@@ -9240,7 +9247,7 @@
         <v>41860</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A347" s="17">
         <v>2014</v>
       </c>
@@ -9263,7 +9270,7 @@
         <v>41867</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A348" s="17">
         <v>2014</v>
       </c>
@@ -9286,7 +9293,7 @@
         <v>41874</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A349" s="17">
         <v>2014</v>
       </c>
@@ -9309,7 +9316,7 @@
         <v>41881</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A350" s="17">
         <v>2014</v>
       </c>
@@ -9332,7 +9339,7 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A351" s="17">
         <v>2014</v>
       </c>
@@ -9355,7 +9362,7 @@
         <v>41895</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A352" s="17">
         <v>2014</v>
       </c>
@@ -9378,7 +9385,7 @@
         <v>41902</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A353" s="17">
         <v>2014</v>
       </c>
@@ -9401,7 +9408,7 @@
         <v>41909</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A354" s="17">
         <v>2014</v>
       </c>
@@ -9424,7 +9431,7 @@
         <v>41916</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A355" s="17">
         <v>2014</v>
       </c>
@@ -9447,7 +9454,7 @@
         <v>41923</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A356" s="17">
         <v>2014</v>
       </c>
@@ -9470,7 +9477,7 @@
         <v>41930</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A357" s="17">
         <v>2014</v>
       </c>
@@ -9493,7 +9500,7 @@
         <v>41937</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A358" s="17">
         <v>2014</v>
       </c>
@@ -9516,7 +9523,7 @@
         <v>41944</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A359" s="17">
         <v>2014</v>
       </c>
@@ -9539,7 +9546,7 @@
         <v>41951</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A360" s="17">
         <v>2014</v>
       </c>
@@ -9562,7 +9569,7 @@
         <v>41958</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A361" s="17">
         <v>2014</v>
       </c>
@@ -9585,7 +9592,7 @@
         <v>41965</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A362" s="17">
         <v>2014</v>
       </c>
@@ -9608,7 +9615,7 @@
         <v>41972</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A363" s="17">
         <v>2014</v>
       </c>
@@ -9631,7 +9638,7 @@
         <v>41979</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A364" s="17">
         <v>2014</v>
       </c>
@@ -9654,7 +9661,7 @@
         <v>41986</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A365" s="17">
         <v>2014</v>
       </c>
@@ -9677,7 +9684,7 @@
         <v>41993</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A366" s="17">
         <v>2014</v>
       </c>
@@ -9700,7 +9707,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A367" s="17">
         <v>2014</v>
       </c>
@@ -9727,6 +9734,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="B3:B5" numberStoredAsText="1"/>
@@ -9742,15 +9750,15 @@
       <selection activeCell="B365" sqref="A365:B365"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="32.625" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
+    <col min="5" max="5" width="27.75" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>240</v>
       </c>
@@ -9764,7 +9772,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -9778,7 +9786,7 @@
         <v>39458</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -9792,7 +9800,7 @@
         <v>39465</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -9806,7 +9814,7 @@
         <v>39472</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -9820,7 +9828,7 @@
         <v>39479</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
@@ -9834,7 +9842,7 @@
         <v>39487</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -9848,7 +9856,7 @@
         <v>39494</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
@@ -9862,7 +9870,7 @@
         <v>39501</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -9876,7 +9884,7 @@
         <v>39508</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
@@ -9890,7 +9898,7 @@
         <v>39515</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -9904,7 +9912,7 @@
         <v>39522</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
@@ -9918,7 +9926,7 @@
         <v>39529</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -9932,7 +9940,7 @@
         <v>39536</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -9946,7 +9954,7 @@
         <v>39543</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -9960,7 +9968,7 @@
         <v>39550</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -9974,7 +9982,7 @@
         <v>39557</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -9988,7 +9996,7 @@
         <v>39564</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>48</v>
       </c>
@@ -10002,7 +10010,7 @@
         <v>39571</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -10016,7 +10024,7 @@
         <v>39578</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>50</v>
       </c>
@@ -10030,7 +10038,7 @@
         <v>39585</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
@@ -10044,7 +10052,7 @@
         <v>39592</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>52</v>
       </c>
@@ -10058,7 +10066,7 @@
         <v>39599</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
@@ -10072,7 +10080,7 @@
         <v>39606</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -10086,7 +10094,7 @@
         <v>39613</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -10100,7 +10108,7 @@
         <v>39620</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -10114,7 +10122,7 @@
         <v>39627</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -10128,7 +10136,7 @@
         <v>39634</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -10142,7 +10150,7 @@
         <v>39641</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -10156,7 +10164,7 @@
         <v>39648</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -10170,7 +10178,7 @@
         <v>39655</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -10184,7 +10192,7 @@
         <v>39662</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -10198,7 +10206,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
@@ -10212,7 +10220,7 @@
         <v>39676</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -10226,7 +10234,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
@@ -10240,7 +10248,7 @@
         <v>39690</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>66</v>
       </c>
@@ -10254,7 +10262,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>67</v>
       </c>
@@ -10268,7 +10276,7 @@
         <v>39704</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>68</v>
       </c>
@@ -10282,7 +10290,7 @@
         <v>39711</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>69</v>
       </c>
@@ -10296,7 +10304,7 @@
         <v>39718</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>70</v>
       </c>
@@ -10310,7 +10318,7 @@
         <v>39725</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>71</v>
       </c>
@@ -10324,7 +10332,7 @@
         <v>39732</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>72</v>
       </c>
@@ -10338,7 +10346,7 @@
         <v>39739</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>73</v>
       </c>
@@ -10352,7 +10360,7 @@
         <v>39746</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>74</v>
       </c>
@@ -10366,7 +10374,7 @@
         <v>39753</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>75</v>
       </c>
@@ -10380,7 +10388,7 @@
         <v>39760</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>76</v>
       </c>
@@ -10394,7 +10402,7 @@
         <v>39767</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>77</v>
       </c>
@@ -10408,7 +10416,7 @@
         <v>39774</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>78</v>
       </c>
@@ -10422,7 +10430,7 @@
         <v>39781</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>79</v>
       </c>
@@ -10436,7 +10444,7 @@
         <v>39788</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>80</v>
       </c>
@@ -10450,7 +10458,7 @@
         <v>39795</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>81</v>
       </c>
@@ -10464,7 +10472,7 @@
         <v>39802</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>82</v>
       </c>
@@ -10478,7 +10486,7 @@
         <v>39809</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>83</v>
       </c>
@@ -10492,7 +10500,7 @@
         <v>39816</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>84</v>
       </c>
@@ -10506,7 +10514,7 @@
         <v>39823</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>85</v>
       </c>
@@ -10520,7 +10528,7 @@
         <v>39830</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>86</v>
       </c>
@@ -10534,7 +10542,7 @@
         <v>39837</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>87</v>
       </c>
@@ -10548,7 +10556,7 @@
         <v>39844</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>88</v>
       </c>
@@ -10562,7 +10570,7 @@
         <v>39851</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>89</v>
       </c>
@@ -10576,7 +10584,7 @@
         <v>39858</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>90</v>
       </c>
@@ -10590,7 +10598,7 @@
         <v>39865</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>91</v>
       </c>
@@ -10604,7 +10612,7 @@
         <v>39872</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>92</v>
       </c>
@@ -10618,7 +10626,7 @@
         <v>39879</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>93</v>
       </c>
@@ -10632,7 +10640,7 @@
         <v>39886</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>94</v>
       </c>
@@ -10646,7 +10654,7 @@
         <v>39893</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>95</v>
       </c>
@@ -10660,7 +10668,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>96</v>
       </c>
@@ -10674,7 +10682,7 @@
         <v>39907</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>97</v>
       </c>
@@ -10688,7 +10696,7 @@
         <v>39914</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>98</v>
       </c>
@@ -10703,7 +10711,7 @@
         <v>39921</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
         <v>99</v>
       </c>
@@ -10718,7 +10726,7 @@
         <v>39928</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>100</v>
       </c>
@@ -10733,7 +10741,7 @@
         <v>39935</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>101</v>
       </c>
@@ -10748,7 +10756,7 @@
         <v>39942</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>102</v>
       </c>
@@ -10763,7 +10771,7 @@
         <v>39949</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>103</v>
       </c>
@@ -10778,7 +10786,7 @@
         <v>39956</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>104</v>
       </c>
@@ -10793,7 +10801,7 @@
         <v>39963</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>105</v>
       </c>
@@ -10808,7 +10816,7 @@
         <v>39970</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>106</v>
       </c>
@@ -10823,7 +10831,7 @@
         <v>39977</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>107</v>
       </c>
@@ -10838,7 +10846,7 @@
         <v>39984</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>108</v>
       </c>
@@ -10853,7 +10861,7 @@
         <v>39991</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>109</v>
       </c>
@@ -10868,7 +10876,7 @@
         <v>39998</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
         <v>110</v>
       </c>
@@ -10883,7 +10891,7 @@
         <v>40005</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>111</v>
       </c>
@@ -10898,7 +10906,7 @@
         <v>40012</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
         <v>112</v>
       </c>
@@ -10913,7 +10921,7 @@
         <v>40019</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>113</v>
       </c>
@@ -10928,7 +10936,7 @@
         <v>40026</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>114</v>
       </c>
@@ -10943,7 +10951,7 @@
         <v>40033</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>115</v>
       </c>
@@ -10958,7 +10966,7 @@
         <v>40040</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>116</v>
       </c>
@@ -10973,7 +10981,7 @@
         <v>40047</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>117</v>
       </c>
@@ -10988,7 +10996,7 @@
         <v>40054</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
         <v>118</v>
       </c>
@@ -11003,7 +11011,7 @@
         <v>40061</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
         <v>119</v>
       </c>
@@ -11018,7 +11026,7 @@
         <v>40068</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>120</v>
       </c>
@@ -11033,7 +11041,7 @@
         <v>40075</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>121</v>
       </c>
@@ -11048,7 +11056,7 @@
         <v>40082</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
         <v>122</v>
       </c>
@@ -11063,7 +11071,7 @@
         <v>40089</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>123</v>
       </c>
@@ -11078,7 +11086,7 @@
         <v>40096</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
         <v>124</v>
       </c>
@@ -11093,7 +11101,7 @@
         <v>40103</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>125</v>
       </c>
@@ -11108,7 +11116,7 @@
         <v>40110</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>126</v>
       </c>
@@ -11123,7 +11131,7 @@
         <v>40117</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>127</v>
       </c>
@@ -11138,7 +11146,7 @@
         <v>40124</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
         <v>128</v>
       </c>
@@ -11153,7 +11161,7 @@
         <v>40131</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>129</v>
       </c>
@@ -11168,7 +11176,7 @@
         <v>40138</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>130</v>
       </c>
@@ -11183,7 +11191,7 @@
         <v>40145</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>131</v>
       </c>
@@ -11198,7 +11206,7 @@
         <v>40152</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>132</v>
       </c>
@@ -11213,7 +11221,7 @@
         <v>40159</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>133</v>
       </c>
@@ -11228,7 +11236,7 @@
         <v>40166</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>134</v>
       </c>
@@ -11243,7 +11251,7 @@
         <v>40173</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>135</v>
       </c>
@@ -11258,7 +11266,7 @@
         <v>40180</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>136</v>
       </c>
@@ -11273,7 +11281,7 @@
         <v>40187</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>137</v>
       </c>
@@ -11288,7 +11296,7 @@
         <v>40194</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>138</v>
       </c>
@@ -11303,7 +11311,7 @@
         <v>40201</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
         <v>139</v>
       </c>
@@ -11318,7 +11326,7 @@
         <v>40208</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>140</v>
       </c>
@@ -11333,7 +11341,7 @@
         <v>40215</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>141</v>
       </c>
@@ -11348,7 +11356,7 @@
         <v>40222</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>142</v>
       </c>
@@ -11363,7 +11371,7 @@
         <v>40229</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
         <v>143</v>
       </c>
@@ -11378,7 +11386,7 @@
         <v>40236</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
         <v>144</v>
       </c>
@@ -11393,7 +11401,7 @@
         <v>40243</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
         <v>145</v>
       </c>
@@ -11408,7 +11416,7 @@
         <v>40250</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
         <v>146</v>
       </c>
@@ -11423,7 +11431,7 @@
         <v>40257</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
         <v>147</v>
       </c>
@@ -11438,7 +11446,7 @@
         <v>40264</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
         <v>148</v>
       </c>
@@ -11453,7 +11461,7 @@
         <v>40271</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
         <v>149</v>
       </c>
@@ -11468,7 +11476,7 @@
         <v>40278</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
         <v>150</v>
       </c>
@@ -11483,7 +11491,7 @@
         <v>40285</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
         <v>151</v>
       </c>
@@ -11498,7 +11506,7 @@
         <v>40292</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>152</v>
       </c>
@@ -11513,7 +11521,7 @@
         <v>40299</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
         <v>153</v>
       </c>
@@ -11528,7 +11536,7 @@
         <v>40306</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
         <v>154</v>
       </c>
@@ -11543,7 +11551,7 @@
         <v>40313</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
         <v>155</v>
       </c>
@@ -11558,7 +11566,7 @@
         <v>40320</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
         <v>156</v>
       </c>
@@ -11573,7 +11581,7 @@
         <v>40327</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
         <v>157</v>
       </c>
@@ -11588,7 +11596,7 @@
         <v>40334</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
         <v>158</v>
       </c>
@@ -11603,7 +11611,7 @@
         <v>40341</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
         <v>159</v>
       </c>
@@ -11618,7 +11626,7 @@
         <v>40348</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
         <v>160</v>
       </c>
@@ -11633,7 +11641,7 @@
         <v>40355</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
         <v>161</v>
       </c>
@@ -11648,7 +11656,7 @@
         <v>40362</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
         <v>162</v>
       </c>
@@ -11663,7 +11671,7 @@
         <v>40369</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
         <v>163</v>
       </c>
@@ -11678,7 +11686,7 @@
         <v>40376</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
         <v>164</v>
       </c>
@@ -11693,7 +11701,7 @@
         <v>40383</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
         <v>165</v>
       </c>
@@ -11708,7 +11716,7 @@
         <v>40390</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
         <v>166</v>
       </c>
@@ -11723,7 +11731,7 @@
         <v>40397</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
         <v>167</v>
       </c>
@@ -11738,7 +11746,7 @@
         <v>40404</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
         <v>168</v>
       </c>
@@ -11753,7 +11761,7 @@
         <v>40411</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
         <v>169</v>
       </c>
@@ -11768,7 +11776,7 @@
         <v>40418</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
         <v>170</v>
       </c>
@@ -11783,7 +11791,7 @@
         <v>40425</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
         <v>171</v>
       </c>
@@ -11798,7 +11806,7 @@
         <v>40432</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
         <v>172</v>
       </c>
@@ -11813,7 +11821,7 @@
         <v>40439</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
         <v>173</v>
       </c>
@@ -11828,7 +11836,7 @@
         <v>40446</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
         <v>174</v>
       </c>
@@ -11843,7 +11851,7 @@
         <v>40453</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
         <v>175</v>
       </c>
@@ -11858,7 +11866,7 @@
         <v>40460</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
         <v>176</v>
       </c>
@@ -11873,7 +11881,7 @@
         <v>40467</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
         <v>177</v>
       </c>
@@ -11888,7 +11896,7 @@
         <v>40474</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
         <v>178</v>
       </c>
@@ -11903,7 +11911,7 @@
         <v>40481</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
         <v>179</v>
       </c>
@@ -11918,7 +11926,7 @@
         <v>40488</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
         <v>180</v>
       </c>
@@ -11933,7 +11941,7 @@
         <v>40495</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
         <v>181</v>
       </c>
@@ -11948,7 +11956,7 @@
         <v>40502</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
         <v>182</v>
       </c>
@@ -11963,7 +11971,7 @@
         <v>40509</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
         <v>183</v>
       </c>
@@ -11978,7 +11986,7 @@
         <v>40516</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
         <v>184</v>
       </c>
@@ -11993,7 +12001,7 @@
         <v>40523</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
         <v>185</v>
       </c>
@@ -12008,7 +12016,7 @@
         <v>40530</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
         <v>186</v>
       </c>
@@ -12023,7 +12031,7 @@
         <v>40537</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
         <v>187</v>
       </c>
@@ -12038,7 +12046,7 @@
         <v>40544</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
         <v>188</v>
       </c>
@@ -12053,7 +12061,7 @@
         <v>40551</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
         <v>189</v>
       </c>
@@ -12068,7 +12076,7 @@
         <v>40558</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
         <v>190</v>
       </c>
@@ -12083,7 +12091,7 @@
         <v>40565</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
         <v>191</v>
       </c>
@@ -12098,7 +12106,7 @@
         <v>40572</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
         <v>192</v>
       </c>
@@ -12113,7 +12121,7 @@
         <v>40579</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
         <v>193</v>
       </c>
@@ -12128,7 +12136,7 @@
         <v>40586</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
         <v>194</v>
       </c>
@@ -12143,7 +12151,7 @@
         <v>40593</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
         <v>195</v>
       </c>
@@ -12158,7 +12166,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
         <v>196</v>
       </c>
@@ -12173,7 +12181,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
         <v>197</v>
       </c>
@@ -12188,7 +12196,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
         <v>198</v>
       </c>
@@ -12203,7 +12211,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
         <v>199</v>
       </c>
@@ -12218,7 +12226,7 @@
         <v>40628</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
         <v>200</v>
       </c>
@@ -12233,7 +12241,7 @@
         <v>40635</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
         <v>201</v>
       </c>
@@ -12248,7 +12256,7 @@
         <v>40642</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
         <v>202</v>
       </c>
@@ -12263,7 +12271,7 @@
         <v>40649</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
         <v>203</v>
       </c>
@@ -12278,7 +12286,7 @@
         <v>40656</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
         <v>204</v>
       </c>
@@ -12293,7 +12301,7 @@
         <v>40663</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
         <v>205</v>
       </c>
@@ -12308,7 +12316,7 @@
         <v>40670</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
         <v>206</v>
       </c>
@@ -12323,7 +12331,7 @@
         <v>40677</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
         <v>207</v>
       </c>
@@ -12338,7 +12346,7 @@
         <v>40684</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
         <v>208</v>
       </c>
@@ -12353,7 +12361,7 @@
         <v>40691</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
         <v>209</v>
       </c>
@@ -12368,7 +12376,7 @@
         <v>40698</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
         <v>210</v>
       </c>
@@ -12383,7 +12391,7 @@
         <v>40705</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
         <v>211</v>
       </c>
@@ -12398,7 +12406,7 @@
         <v>40712</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
         <v>212</v>
       </c>
@@ -12413,7 +12421,7 @@
         <v>40719</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
         <v>213</v>
       </c>
@@ -12428,7 +12436,7 @@
         <v>40726</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
         <v>214</v>
       </c>
@@ -12443,7 +12451,7 @@
         <v>40733</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
         <v>215</v>
       </c>
@@ -12458,7 +12466,7 @@
         <v>40740</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
         <v>216</v>
       </c>
@@ -12473,7 +12481,7 @@
         <v>40747</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
         <v>217</v>
       </c>
@@ -12488,7 +12496,7 @@
         <v>40754</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
         <v>218</v>
       </c>
@@ -12503,7 +12511,7 @@
         <v>40761</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
         <v>219</v>
       </c>
@@ -12518,7 +12526,7 @@
         <v>40768</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
         <v>220</v>
       </c>
@@ -12533,7 +12541,7 @@
         <v>40775</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
         <v>221</v>
       </c>
@@ -12548,7 +12556,7 @@
         <v>40782</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
         <v>222</v>
       </c>
@@ -12563,7 +12571,7 @@
         <v>40789</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
         <v>223</v>
       </c>
@@ -12578,7 +12586,7 @@
         <v>40796</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
         <v>224</v>
       </c>
@@ -12593,7 +12601,7 @@
         <v>40803</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
         <v>225</v>
       </c>
@@ -12608,7 +12616,7 @@
         <v>40810</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
         <v>226</v>
       </c>
@@ -12623,7 +12631,7 @@
         <v>40817</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
         <v>227</v>
       </c>
@@ -12638,7 +12646,7 @@
         <v>40824</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
         <v>228</v>
       </c>
@@ -12653,7 +12661,7 @@
         <v>40831</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
         <v>229</v>
       </c>
@@ -12668,7 +12676,7 @@
         <v>40838</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
         <v>230</v>
       </c>
@@ -12683,7 +12691,7 @@
         <v>40845</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
         <v>231</v>
       </c>
@@ -12698,7 +12706,7 @@
         <v>40852</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
         <v>232</v>
       </c>
@@ -12713,7 +12721,7 @@
         <v>40859</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
         <v>233</v>
       </c>
@@ -12728,7 +12736,7 @@
         <v>40866</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
         <v>234</v>
       </c>
@@ -12743,7 +12751,7 @@
         <v>40873</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
         <v>235</v>
       </c>
@@ -12758,7 +12766,7 @@
         <v>40880</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
         <v>236</v>
       </c>
@@ -12773,7 +12781,7 @@
         <v>40887</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
         <v>237</v>
       </c>
@@ -12788,7 +12796,7 @@
         <v>40894</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
         <v>238</v>
       </c>
@@ -12803,7 +12811,7 @@
         <v>40901</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
         <v>239</v>
       </c>
@@ -12818,7 +12826,7 @@
         <v>40908</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210" s="17" t="str">
         <f>'IR Calendar'!A211&amp;"-"&amp;'IR Calendar'!B211&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D211</f>
         <v>2012-01 WK 1</v>
@@ -12834,7 +12842,7 @@
         <v>40915</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" s="17" t="str">
         <f>'IR Calendar'!A212&amp;"-"&amp;'IR Calendar'!B212&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D212</f>
         <v>2012-01 WK 2</v>
@@ -12850,7 +12858,7 @@
         <v>40922</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212" s="17" t="str">
         <f>'IR Calendar'!A213&amp;"-"&amp;'IR Calendar'!B213&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D213</f>
         <v>2012-01 WK 3</v>
@@ -12866,7 +12874,7 @@
         <v>40929</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213" s="17" t="str">
         <f>'IR Calendar'!A214&amp;"-"&amp;'IR Calendar'!B214&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D214</f>
         <v>2012-01 WK 4</v>
@@ -12882,7 +12890,7 @@
         <v>40936</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214" s="17" t="str">
         <f>'IR Calendar'!A215&amp;"-"&amp;'IR Calendar'!B215&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D215</f>
         <v>2012-02 WK 1</v>
@@ -12898,7 +12906,7 @@
         <v>40943</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A215" s="17" t="str">
         <f>'IR Calendar'!A216&amp;"-"&amp;'IR Calendar'!B216&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D216</f>
         <v>2012-02 WK 2</v>
@@ -12914,7 +12922,7 @@
         <v>40950</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216" s="17" t="str">
         <f>'IR Calendar'!A217&amp;"-"&amp;'IR Calendar'!B217&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D217</f>
         <v>2012-02 WK 3</v>
@@ -12930,7 +12938,7 @@
         <v>40957</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" s="17" t="str">
         <f>'IR Calendar'!A218&amp;"-"&amp;'IR Calendar'!B218&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D218</f>
         <v>2012-02 WK 4</v>
@@ -12946,7 +12954,7 @@
         <v>40964</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A218" s="17" t="str">
         <f>'IR Calendar'!A219&amp;"-"&amp;'IR Calendar'!B219&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D219</f>
         <v>2012-03 WK 1</v>
@@ -12962,7 +12970,7 @@
         <v>40971</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219" s="17" t="str">
         <f>'IR Calendar'!A220&amp;"-"&amp;'IR Calendar'!B220&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D220</f>
         <v>2012-03 WK 2</v>
@@ -12978,7 +12986,7 @@
         <v>40978</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220" s="17" t="str">
         <f>'IR Calendar'!A221&amp;"-"&amp;'IR Calendar'!B221&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D221</f>
         <v>2012-03 WK 3</v>
@@ -12994,7 +13002,7 @@
         <v>40985</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A221" s="17" t="str">
         <f>'IR Calendar'!A222&amp;"-"&amp;'IR Calendar'!B222&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D222</f>
         <v>2012-03 WK 4</v>
@@ -13010,7 +13018,7 @@
         <v>40992</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" s="17" t="str">
         <f>'IR Calendar'!A223&amp;"-"&amp;'IR Calendar'!B223&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D223</f>
         <v>2012-03 WK 5</v>
@@ -13026,7 +13034,7 @@
         <v>40999</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A223" s="17" t="str">
         <f>'IR Calendar'!A224&amp;"-"&amp;'IR Calendar'!B224&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D224</f>
         <v>2012-04 WK 1</v>
@@ -13042,7 +13050,7 @@
         <v>41006</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224" s="17" t="str">
         <f>'IR Calendar'!A225&amp;"-"&amp;'IR Calendar'!B225&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D225</f>
         <v>2012-04 WK 2</v>
@@ -13058,7 +13066,7 @@
         <v>41013</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A225" s="17" t="str">
         <f>'IR Calendar'!A226&amp;"-"&amp;'IR Calendar'!B226&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D226</f>
         <v>2012-04 WK 3</v>
@@ -13074,7 +13082,7 @@
         <v>41020</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" s="17" t="str">
         <f>'IR Calendar'!A227&amp;"-"&amp;'IR Calendar'!B227&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D227</f>
         <v>2012-04 WK 4</v>
@@ -13090,7 +13098,7 @@
         <v>41027</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A227" s="17" t="str">
         <f>'IR Calendar'!A228&amp;"-"&amp;'IR Calendar'!B228&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D228</f>
         <v>2012-05 WK 1</v>
@@ -13106,7 +13114,7 @@
         <v>41034</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A228" s="17" t="str">
         <f>'IR Calendar'!A229&amp;"-"&amp;'IR Calendar'!B229&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D229</f>
         <v>2012-05 WK 2</v>
@@ -13122,7 +13130,7 @@
         <v>41041</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A229" s="17" t="str">
         <f>'IR Calendar'!A230&amp;"-"&amp;'IR Calendar'!B230&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D230</f>
         <v>2012-05 WK 3</v>
@@ -13138,7 +13146,7 @@
         <v>41048</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A230" s="17" t="str">
         <f>'IR Calendar'!A231&amp;"-"&amp;'IR Calendar'!B231&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D231</f>
         <v>2012-05 WK 4</v>
@@ -13154,7 +13162,7 @@
         <v>41055</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A231" s="17" t="str">
         <f>'IR Calendar'!A232&amp;"-"&amp;'IR Calendar'!B232&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D232</f>
         <v>2012-06 WK 1</v>
@@ -13170,7 +13178,7 @@
         <v>41062</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A232" s="17" t="str">
         <f>'IR Calendar'!A233&amp;"-"&amp;'IR Calendar'!B233&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D233</f>
         <v>2012-06 WK 2</v>
@@ -13186,7 +13194,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A233" s="17" t="str">
         <f>'IR Calendar'!A234&amp;"-"&amp;'IR Calendar'!B234&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D234</f>
         <v>2012-06 WK 3</v>
@@ -13202,7 +13210,7 @@
         <v>41076</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A234" s="17" t="str">
         <f>'IR Calendar'!A235&amp;"-"&amp;'IR Calendar'!B235&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D235</f>
         <v>2012-06 WK 4</v>
@@ -13218,7 +13226,7 @@
         <v>41083</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" s="17" t="str">
         <f>'IR Calendar'!A236&amp;"-"&amp;'IR Calendar'!B236&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D236</f>
         <v>2012-06 WK 5</v>
@@ -13234,7 +13242,7 @@
         <v>41090</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A236" s="17" t="str">
         <f>'IR Calendar'!A237&amp;"-"&amp;'IR Calendar'!B237&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D237</f>
         <v>2012-07 WK 1</v>
@@ -13250,7 +13258,7 @@
         <v>41097</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A237" s="17" t="str">
         <f>'IR Calendar'!A238&amp;"-"&amp;'IR Calendar'!B238&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D238</f>
         <v>2012-07 WK 2</v>
@@ -13266,7 +13274,7 @@
         <v>41104</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A238" s="17" t="str">
         <f>'IR Calendar'!A239&amp;"-"&amp;'IR Calendar'!B239&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D239</f>
         <v>2012-07 WK 3</v>
@@ -13282,7 +13290,7 @@
         <v>41111</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A239" s="17" t="str">
         <f>'IR Calendar'!A240&amp;"-"&amp;'IR Calendar'!B240&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D240</f>
         <v>2012-07 WK 4</v>
@@ -13298,7 +13306,7 @@
         <v>41118</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A240" s="17" t="str">
         <f>'IR Calendar'!A241&amp;"-"&amp;'IR Calendar'!B241&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D241</f>
         <v>2012-08 WK 1</v>
@@ -13314,7 +13322,7 @@
         <v>41125</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A241" s="17" t="str">
         <f>'IR Calendar'!A242&amp;"-"&amp;'IR Calendar'!B242&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D242</f>
         <v>2012-08 WK 2</v>
@@ -13330,7 +13338,7 @@
         <v>41132</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A242" s="17" t="str">
         <f>'IR Calendar'!A243&amp;"-"&amp;'IR Calendar'!B243&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D243</f>
         <v>2012-08 WK 3</v>
@@ -13346,7 +13354,7 @@
         <v>41139</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A243" s="17" t="str">
         <f>'IR Calendar'!A244&amp;"-"&amp;'IR Calendar'!B244&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D244</f>
         <v>2012-08 WK 4</v>
@@ -13362,7 +13370,7 @@
         <v>41146</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" s="17" t="str">
         <f>'IR Calendar'!A245&amp;"-"&amp;'IR Calendar'!B245&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D245</f>
         <v>2012-09 WK 1</v>
@@ -13378,7 +13386,7 @@
         <v>41153</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A245" s="17" t="str">
         <f>'IR Calendar'!A246&amp;"-"&amp;'IR Calendar'!B246&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D246</f>
         <v>2012-09 WK 2</v>
@@ -13394,7 +13402,7 @@
         <v>41160</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A246" s="17" t="str">
         <f>'IR Calendar'!A247&amp;"-"&amp;'IR Calendar'!B247&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D247</f>
         <v>2012-09 WK 3</v>
@@ -13410,7 +13418,7 @@
         <v>41167</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" s="17" t="str">
         <f>'IR Calendar'!A248&amp;"-"&amp;'IR Calendar'!B248&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D248</f>
         <v>2012-09 WK 4</v>
@@ -13426,7 +13434,7 @@
         <v>41174</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A248" s="17" t="str">
         <f>'IR Calendar'!A249&amp;"-"&amp;'IR Calendar'!B249&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D249</f>
         <v>2012-09 WK 5</v>
@@ -13442,7 +13450,7 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A249" s="17" t="str">
         <f>'IR Calendar'!A250&amp;"-"&amp;'IR Calendar'!B250&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D250</f>
         <v>2012-10 WK 1</v>
@@ -13458,7 +13466,7 @@
         <v>41188</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250" s="17" t="str">
         <f>'IR Calendar'!A251&amp;"-"&amp;'IR Calendar'!B251&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D251</f>
         <v>2012-10 WK 2</v>
@@ -13474,7 +13482,7 @@
         <v>41195</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" s="17" t="str">
         <f>'IR Calendar'!A252&amp;"-"&amp;'IR Calendar'!B252&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D252</f>
         <v>2012-10 WK 3</v>
@@ -13490,7 +13498,7 @@
         <v>41202</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A252" s="17" t="str">
         <f>'IR Calendar'!A253&amp;"-"&amp;'IR Calendar'!B253&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D253</f>
         <v>2012-10 WK 4</v>
@@ -13506,7 +13514,7 @@
         <v>41209</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253" s="17" t="str">
         <f>'IR Calendar'!A254&amp;"-"&amp;'IR Calendar'!B254&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D254</f>
         <v>2012-11 WK 1</v>
@@ -13522,7 +13530,7 @@
         <v>41216</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A254" s="17" t="str">
         <f>'IR Calendar'!A255&amp;"-"&amp;'IR Calendar'!B255&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D255</f>
         <v>2012-11 WK 2</v>
@@ -13538,7 +13546,7 @@
         <v>41223</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A255" s="17" t="str">
         <f>'IR Calendar'!A256&amp;"-"&amp;'IR Calendar'!B256&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D256</f>
         <v>2012-11 WK 3</v>
@@ -13554,7 +13562,7 @@
         <v>41230</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A256" s="17" t="str">
         <f>'IR Calendar'!A257&amp;"-"&amp;'IR Calendar'!B257&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D257</f>
         <v>2012-11 WK 4</v>
@@ -13570,7 +13578,7 @@
         <v>41237</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A257" s="17" t="str">
         <f>'IR Calendar'!A258&amp;"-"&amp;'IR Calendar'!B258&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D258</f>
         <v>2012-12 WK 1</v>
@@ -13586,7 +13594,7 @@
         <v>41244</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A258" s="17" t="str">
         <f>'IR Calendar'!A259&amp;"-"&amp;'IR Calendar'!B259&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D259</f>
         <v>2012-12 WK 2</v>
@@ -13602,7 +13610,7 @@
         <v>41251</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A259" s="17" t="str">
         <f>'IR Calendar'!A260&amp;"-"&amp;'IR Calendar'!B260&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D260</f>
         <v>2012-12 WK 3</v>
@@ -13618,7 +13626,7 @@
         <v>41258</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A260" s="17" t="str">
         <f>'IR Calendar'!A261&amp;"-"&amp;'IR Calendar'!B261&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D261</f>
         <v>2012-12 WK 4</v>
@@ -13634,7 +13642,7 @@
         <v>41265</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A261" s="17" t="str">
         <f>'IR Calendar'!A262&amp;"-"&amp;'IR Calendar'!B262&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D262</f>
         <v>2012-12 WK 5</v>
@@ -13650,7 +13658,7 @@
         <v>41272</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A262" s="17" t="str">
         <f>'IR Calendar'!A263&amp;"-"&amp;'IR Calendar'!B263&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D263</f>
         <v>2013-01 WK 1</v>
@@ -13666,7 +13674,7 @@
         <v>41279</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A263" s="17" t="str">
         <f>'IR Calendar'!A264&amp;"-"&amp;'IR Calendar'!B264&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D264</f>
         <v>2013-01 WK 2</v>
@@ -13682,7 +13690,7 @@
         <v>41286</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A264" s="17" t="str">
         <f>'IR Calendar'!A265&amp;"-"&amp;'IR Calendar'!B265&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D265</f>
         <v>2013-01 WK 3</v>
@@ -13698,7 +13706,7 @@
         <v>41293</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A265" s="17" t="str">
         <f>'IR Calendar'!A266&amp;"-"&amp;'IR Calendar'!B266&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D266</f>
         <v>2013-01 WK 4</v>
@@ -13714,7 +13722,7 @@
         <v>41300</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A266" s="17" t="str">
         <f>'IR Calendar'!A267&amp;"-"&amp;'IR Calendar'!B267&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D267</f>
         <v>2013-01 WK 5</v>
@@ -13730,7 +13738,7 @@
         <v>41307</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A267" s="17" t="str">
         <f>'IR Calendar'!A268&amp;"-"&amp;'IR Calendar'!B268&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D268</f>
         <v>2013-02 WK 1</v>
@@ -13746,7 +13754,7 @@
         <v>41314</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A268" s="17" t="str">
         <f>'IR Calendar'!A269&amp;"-"&amp;'IR Calendar'!B269&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D269</f>
         <v>2013-02 WK 2</v>
@@ -13762,7 +13770,7 @@
         <v>41321</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A269" s="17" t="str">
         <f>'IR Calendar'!A270&amp;"-"&amp;'IR Calendar'!B270&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D270</f>
         <v>2013-02 WK 3</v>
@@ -13778,7 +13786,7 @@
         <v>41328</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A270" s="23" t="str">
         <f>'IR Calendar'!A271&amp;"-"&amp;'IR Calendar'!B271&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D271</f>
         <v>2013-02 WK 4</v>
@@ -13795,7 +13803,7 @@
         <v>41335</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A271" s="17" t="str">
         <f>'IR Calendar'!A272&amp;"-"&amp;'IR Calendar'!B272&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D272</f>
         <v>2013-03 WK 1</v>
@@ -13811,7 +13819,7 @@
         <v>41342</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A272" s="17" t="str">
         <f>'IR Calendar'!A273&amp;"-"&amp;'IR Calendar'!B273&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D273</f>
         <v>2013-03 WK 2</v>
@@ -13827,7 +13835,7 @@
         <v>41349</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A273" s="17" t="str">
         <f>'IR Calendar'!A274&amp;"-"&amp;'IR Calendar'!B274&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D274</f>
         <v>2013-03 WK 3</v>
@@ -13843,7 +13851,7 @@
         <v>41356</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A274" s="17" t="str">
         <f>'IR Calendar'!A275&amp;"-"&amp;'IR Calendar'!B275&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D275</f>
         <v>2013-03 WK 4</v>
@@ -13859,7 +13867,7 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A275" s="17" t="str">
         <f>'IR Calendar'!A276&amp;"-"&amp;'IR Calendar'!B276&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D276</f>
         <v>2013-03 WK 5</v>
@@ -13875,7 +13883,7 @@
         <v>41370</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A276" s="17" t="str">
         <f>'IR Calendar'!A277&amp;"-"&amp;'IR Calendar'!B277&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D277</f>
         <v>2013-04 WK 1</v>
@@ -13891,7 +13899,7 @@
         <v>41377</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A277" s="17" t="str">
         <f>'IR Calendar'!A278&amp;"-"&amp;'IR Calendar'!B278&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D278</f>
         <v>2013-04 WK 2</v>
@@ -13907,7 +13915,7 @@
         <v>41384</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A278" s="17" t="str">
         <f>'IR Calendar'!A279&amp;"-"&amp;'IR Calendar'!B279&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D279</f>
         <v>2013-04 WK 3</v>
@@ -13923,7 +13931,7 @@
         <v>41391</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A279" s="17" t="str">
         <f>'IR Calendar'!A280&amp;"-"&amp;'IR Calendar'!B280&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D280</f>
         <v>2013-04 WK 4</v>
@@ -13939,7 +13947,7 @@
         <v>41398</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A280" s="17" t="str">
         <f>'IR Calendar'!A281&amp;"-"&amp;'IR Calendar'!B281&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D281</f>
         <v>2013-05 WK 1</v>
@@ -13955,7 +13963,7 @@
         <v>41405</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A281" s="17" t="str">
         <f>'IR Calendar'!A282&amp;"-"&amp;'IR Calendar'!B282&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D282</f>
         <v>2013-05 WK 2</v>
@@ -13971,7 +13979,7 @@
         <v>41412</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A282" s="17" t="str">
         <f>'IR Calendar'!A283&amp;"-"&amp;'IR Calendar'!B283&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D283</f>
         <v>2013-05 WK 3</v>
@@ -13987,7 +13995,7 @@
         <v>41419</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A283" s="17" t="str">
         <f>'IR Calendar'!A284&amp;"-"&amp;'IR Calendar'!B284&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D284</f>
         <v>2013-05 WK 4</v>
@@ -14003,7 +14011,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A284" s="17" t="str">
         <f>'IR Calendar'!A285&amp;"-"&amp;'IR Calendar'!B285&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D285</f>
         <v>2013-06 WK 1</v>
@@ -14019,7 +14027,7 @@
         <v>41433</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A285" s="17" t="str">
         <f>'IR Calendar'!A286&amp;"-"&amp;'IR Calendar'!B286&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D286</f>
         <v>2013-06 WK 2</v>
@@ -14035,7 +14043,7 @@
         <v>41440</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A286" s="17" t="str">
         <f>'IR Calendar'!A287&amp;"-"&amp;'IR Calendar'!B287&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D287</f>
         <v>2013-06 WK 3</v>
@@ -14051,7 +14059,7 @@
         <v>41447</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A287" s="17" t="str">
         <f>'IR Calendar'!A288&amp;"-"&amp;'IR Calendar'!B288&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D288</f>
         <v>2013-06 WK 4</v>
@@ -14067,7 +14075,7 @@
         <v>41454</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A288" s="17" t="str">
         <f>'IR Calendar'!A289&amp;"-"&amp;'IR Calendar'!B289&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D289</f>
         <v>2013-06 WK 5</v>
@@ -14083,7 +14091,7 @@
         <v>41461</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A289" s="17" t="str">
         <f>'IR Calendar'!A290&amp;"-"&amp;'IR Calendar'!B290&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D290</f>
         <v>2013-07 WK 1</v>
@@ -14099,7 +14107,7 @@
         <v>41468</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A290" s="17" t="str">
         <f>'IR Calendar'!A291&amp;"-"&amp;'IR Calendar'!B291&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D291</f>
         <v>2013-07 WK 2</v>
@@ -14115,7 +14123,7 @@
         <v>41475</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A291" s="17" t="str">
         <f>'IR Calendar'!A292&amp;"-"&amp;'IR Calendar'!B292&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D292</f>
         <v>2013-07 WK 3</v>
@@ -14131,7 +14139,7 @@
         <v>41482</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A292" s="17" t="str">
         <f>'IR Calendar'!A293&amp;"-"&amp;'IR Calendar'!B293&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D293</f>
         <v>2013-07 WK 4</v>
@@ -14147,7 +14155,7 @@
         <v>41489</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A293" s="17" t="str">
         <f>'IR Calendar'!A294&amp;"-"&amp;'IR Calendar'!B294&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D294</f>
         <v>2013-08 WK 1</v>
@@ -14163,7 +14171,7 @@
         <v>41496</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A294" s="17" t="str">
         <f>'IR Calendar'!A295&amp;"-"&amp;'IR Calendar'!B295&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D295</f>
         <v>2013-08 WK 2</v>
@@ -14179,7 +14187,7 @@
         <v>41503</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A295" s="17" t="str">
         <f>'IR Calendar'!A296&amp;"-"&amp;'IR Calendar'!B296&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D296</f>
         <v>2013-08 WK 3</v>
@@ -14195,7 +14203,7 @@
         <v>41510</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A296" s="17" t="str">
         <f>'IR Calendar'!A297&amp;"-"&amp;'IR Calendar'!B297&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D297</f>
         <v>2013-08 WK 4</v>
@@ -14211,7 +14219,7 @@
         <v>41517</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A297" s="17" t="str">
         <f>'IR Calendar'!A298&amp;"-"&amp;'IR Calendar'!B298&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D298</f>
         <v>2013-09 WK 1</v>
@@ -14227,7 +14235,7 @@
         <v>41524</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A298" s="17" t="str">
         <f>'IR Calendar'!A299&amp;"-"&amp;'IR Calendar'!B299&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D299</f>
         <v>2013-09 WK 2</v>
@@ -14243,7 +14251,7 @@
         <v>41531</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A299" s="17" t="str">
         <f>'IR Calendar'!A300&amp;"-"&amp;'IR Calendar'!B300&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D300</f>
         <v>2013-09 WK 3</v>
@@ -14259,7 +14267,7 @@
         <v>41538</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A300" s="17" t="str">
         <f>'IR Calendar'!A301&amp;"-"&amp;'IR Calendar'!B301&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D301</f>
         <v>2013-09 WK 4</v>
@@ -14275,7 +14283,7 @@
         <v>41545</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A301" s="17" t="str">
         <f>'IR Calendar'!A302&amp;"-"&amp;'IR Calendar'!B302&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D302</f>
         <v>2013-09 WK 5</v>
@@ -14291,7 +14299,7 @@
         <v>41552</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A302" s="17" t="str">
         <f>'IR Calendar'!A303&amp;"-"&amp;'IR Calendar'!B303&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D303</f>
         <v>2013-10 WK 1</v>
@@ -14307,7 +14315,7 @@
         <v>41559</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A303" s="17" t="str">
         <f>'IR Calendar'!A304&amp;"-"&amp;'IR Calendar'!B304&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D304</f>
         <v>2013-10 WK 2</v>
@@ -14323,7 +14331,7 @@
         <v>41566</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A304" s="17" t="str">
         <f>'IR Calendar'!A305&amp;"-"&amp;'IR Calendar'!B305&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D305</f>
         <v>2013-10 WK 3</v>
@@ -14339,7 +14347,7 @@
         <v>41573</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A305" s="17" t="str">
         <f>'IR Calendar'!A306&amp;"-"&amp;'IR Calendar'!B306&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D306</f>
         <v>2013-10 WK 4</v>
@@ -14355,7 +14363,7 @@
         <v>41580</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A306" s="17" t="str">
         <f>'IR Calendar'!A307&amp;"-"&amp;'IR Calendar'!B307&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D307</f>
         <v>2013-11 WK 1</v>
@@ -14371,7 +14379,7 @@
         <v>41587</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A307" s="17" t="str">
         <f>'IR Calendar'!A308&amp;"-"&amp;'IR Calendar'!B308&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D308</f>
         <v>2013-11 WK 2</v>
@@ -14387,7 +14395,7 @@
         <v>41594</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A308" s="17" t="str">
         <f>'IR Calendar'!A309&amp;"-"&amp;'IR Calendar'!B309&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D309</f>
         <v>2013-11 WK 3</v>
@@ -14403,7 +14411,7 @@
         <v>41601</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A309" s="17" t="str">
         <f>'IR Calendar'!A310&amp;"-"&amp;'IR Calendar'!B310&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D310</f>
         <v>2013-11 WK 4</v>
@@ -14419,7 +14427,7 @@
         <v>41608</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A310" s="17" t="str">
         <f>'IR Calendar'!A311&amp;"-"&amp;'IR Calendar'!B311&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D311</f>
         <v>2013-12 WK 1</v>
@@ -14435,7 +14443,7 @@
         <v>41615</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A311" s="17" t="str">
         <f>'IR Calendar'!A312&amp;"-"&amp;'IR Calendar'!B312&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D312</f>
         <v>2013-12 WK 2</v>
@@ -14451,7 +14459,7 @@
         <v>41622</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A312" s="17" t="str">
         <f>'IR Calendar'!A313&amp;"-"&amp;'IR Calendar'!B313&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D313</f>
         <v>2013-12 WK 3</v>
@@ -14467,7 +14475,7 @@
         <v>41629</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A313" s="17" t="str">
         <f>'IR Calendar'!A314&amp;"-"&amp;'IR Calendar'!B314&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D314</f>
         <v>2013-12 WK 4</v>
@@ -14483,7 +14491,7 @@
         <v>41636</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A314" s="17" t="str">
         <f>'IR Calendar'!A315&amp;"-"&amp;'IR Calendar'!B315&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D315</f>
         <v>2013-12 WK 5</v>
@@ -14499,7 +14507,7 @@
         <v>41643</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A315" s="17" t="str">
         <f>'IR Calendar'!A316&amp;"-"&amp;'IR Calendar'!B316&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D316</f>
         <v>2014-01 WK 1</v>
@@ -14515,7 +14523,7 @@
         <v>41650</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A316" s="17" t="str">
         <f>'IR Calendar'!A317&amp;"-"&amp;'IR Calendar'!B317&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D317</f>
         <v>2014-01 WK 2</v>
@@ -14531,7 +14539,7 @@
         <v>41657</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A317" s="17" t="str">
         <f>'IR Calendar'!A318&amp;"-"&amp;'IR Calendar'!B318&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D318</f>
         <v>2014-01 WK 3</v>
@@ -14547,7 +14555,7 @@
         <v>41664</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A318" s="17" t="str">
         <f>'IR Calendar'!A319&amp;"-"&amp;'IR Calendar'!B319&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D319</f>
         <v>2014-01 WK 4</v>
@@ -14563,7 +14571,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319" s="17" t="str">
         <f>'IR Calendar'!A320&amp;"-"&amp;'IR Calendar'!B320&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D320</f>
         <v>2014-02 WK 1</v>
@@ -14579,7 +14587,7 @@
         <v>41678</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A320" s="17" t="str">
         <f>'IR Calendar'!A321&amp;"-"&amp;'IR Calendar'!B321&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D321</f>
         <v>2014-02 WK 2</v>
@@ -14595,7 +14603,7 @@
         <v>41685</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A321" s="17" t="str">
         <f>'IR Calendar'!A322&amp;"-"&amp;'IR Calendar'!B322&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D322</f>
         <v>2014-02 WK 3</v>
@@ -14611,7 +14619,7 @@
         <v>41692</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A322" s="17" t="str">
         <f>'IR Calendar'!A323&amp;"-"&amp;'IR Calendar'!B323&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D323</f>
         <v>2014-02 WK 4</v>
@@ -14627,7 +14635,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A323" s="17" t="str">
         <f>'IR Calendar'!A324&amp;"-"&amp;'IR Calendar'!B324&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D324</f>
         <v>2014-03 WK 1</v>
@@ -14643,7 +14651,7 @@
         <v>41706</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A324" s="17" t="str">
         <f>'IR Calendar'!A325&amp;"-"&amp;'IR Calendar'!B325&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D325</f>
         <v>2014-03 WK 2</v>
@@ -14659,7 +14667,7 @@
         <v>41713</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A325" s="17" t="str">
         <f>'IR Calendar'!A326&amp;"-"&amp;'IR Calendar'!B326&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D326</f>
         <v>2014-03 WK 3</v>
@@ -14675,7 +14683,7 @@
         <v>41720</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A326" s="17" t="str">
         <f>'IR Calendar'!A327&amp;"-"&amp;'IR Calendar'!B327&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D327</f>
         <v>2014-03 WK 4</v>
@@ -14691,7 +14699,7 @@
         <v>41727</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A327" s="17" t="str">
         <f>'IR Calendar'!A328&amp;"-"&amp;'IR Calendar'!B328&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D328</f>
         <v>2014-03 WK 5</v>
@@ -14707,7 +14715,7 @@
         <v>41734</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A328" s="17" t="str">
         <f>'IR Calendar'!A329&amp;"-"&amp;'IR Calendar'!B329&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D329</f>
         <v>2014-04 WK 1</v>
@@ -14723,7 +14731,7 @@
         <v>41741</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A329" s="17" t="str">
         <f>'IR Calendar'!A330&amp;"-"&amp;'IR Calendar'!B330&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D330</f>
         <v>2014-04 WK 2</v>
@@ -14739,7 +14747,7 @@
         <v>41748</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A330" s="17" t="str">
         <f>'IR Calendar'!A331&amp;"-"&amp;'IR Calendar'!B331&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D331</f>
         <v>2014-04 WK 3</v>
@@ -14755,7 +14763,7 @@
         <v>41755</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A331" s="17" t="str">
         <f>'IR Calendar'!A332&amp;"-"&amp;'IR Calendar'!B332&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D332</f>
         <v>2014-04 WK 4</v>
@@ -14771,7 +14779,7 @@
         <v>41762</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A332" s="17" t="str">
         <f>'IR Calendar'!A333&amp;"-"&amp;'IR Calendar'!B333&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D333</f>
         <v>2014-05 WK 1</v>
@@ -14787,7 +14795,7 @@
         <v>41769</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A333" s="17" t="str">
         <f>'IR Calendar'!A334&amp;"-"&amp;'IR Calendar'!B334&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D334</f>
         <v>2014-05 WK 2</v>
@@ -14803,7 +14811,7 @@
         <v>41776</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A334" s="17" t="str">
         <f>'IR Calendar'!A335&amp;"-"&amp;'IR Calendar'!B335&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D335</f>
         <v>2014-05 WK 3</v>
@@ -14819,7 +14827,7 @@
         <v>41783</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A335" s="17" t="str">
         <f>'IR Calendar'!A336&amp;"-"&amp;'IR Calendar'!B336&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D336</f>
         <v>2014-05 WK 4</v>
@@ -14835,7 +14843,7 @@
         <v>41790</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A336" s="17" t="str">
         <f>'IR Calendar'!A337&amp;"-"&amp;'IR Calendar'!B337&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D337</f>
         <v>2014-06 WK 1</v>
@@ -14851,7 +14859,7 @@
         <v>41797</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A337" s="17" t="str">
         <f>'IR Calendar'!A338&amp;"-"&amp;'IR Calendar'!B338&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D338</f>
         <v>2014-06 WK 2</v>
@@ -14867,7 +14875,7 @@
         <v>41804</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A338" s="17" t="str">
         <f>'IR Calendar'!A339&amp;"-"&amp;'IR Calendar'!B339&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D339</f>
         <v>2014-06 WK 3</v>
@@ -14883,7 +14891,7 @@
         <v>41811</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A339" s="17" t="str">
         <f>'IR Calendar'!A340&amp;"-"&amp;'IR Calendar'!B340&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D340</f>
         <v>2014-06 WK 4</v>
@@ -14899,7 +14907,7 @@
         <v>41818</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A340" s="17" t="str">
         <f>'IR Calendar'!A341&amp;"-"&amp;'IR Calendar'!B341&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D341</f>
         <v>2014-06 WK 5</v>
@@ -14915,7 +14923,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A341" s="17" t="str">
         <f>'IR Calendar'!A342&amp;"-"&amp;'IR Calendar'!B342&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D342</f>
         <v>2014-07 WK 1</v>
@@ -14931,7 +14939,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A342" s="17" t="str">
         <f>'IR Calendar'!A343&amp;"-"&amp;'IR Calendar'!B343&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D343</f>
         <v>2014-07 WK 2</v>
@@ -14947,7 +14955,7 @@
         <v>41839</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A343" s="17" t="str">
         <f>'IR Calendar'!A344&amp;"-"&amp;'IR Calendar'!B344&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D344</f>
         <v>2014-07 WK 3</v>
@@ -14963,7 +14971,7 @@
         <v>41846</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A344" s="17" t="str">
         <f>'IR Calendar'!A345&amp;"-"&amp;'IR Calendar'!B345&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D345</f>
         <v>2014-07 WK 4</v>
@@ -14979,7 +14987,7 @@
         <v>41853</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A345" s="17" t="str">
         <f>'IR Calendar'!A346&amp;"-"&amp;'IR Calendar'!B346&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D346</f>
         <v>2014-08 WK 1</v>
@@ -14995,7 +15003,7 @@
         <v>41860</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A346" s="17" t="str">
         <f>'IR Calendar'!A347&amp;"-"&amp;'IR Calendar'!B347&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D347</f>
         <v>2014-08 WK 2</v>
@@ -15011,7 +15019,7 @@
         <v>41867</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A347" s="17" t="str">
         <f>'IR Calendar'!A348&amp;"-"&amp;'IR Calendar'!B348&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D348</f>
         <v>2014-08 WK 3</v>
@@ -15027,7 +15035,7 @@
         <v>41874</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A348" s="17" t="str">
         <f>'IR Calendar'!A349&amp;"-"&amp;'IR Calendar'!B349&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D349</f>
         <v>2014-08 WK 4</v>
@@ -15043,7 +15051,7 @@
         <v>41881</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A349" s="17" t="str">
         <f>'IR Calendar'!A350&amp;"-"&amp;'IR Calendar'!B350&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D350</f>
         <v>2014-09 WK 1</v>
@@ -15059,7 +15067,7 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A350" s="17" t="str">
         <f>'IR Calendar'!A351&amp;"-"&amp;'IR Calendar'!B351&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D351</f>
         <v>2014-09 WK 2</v>
@@ -15075,7 +15083,7 @@
         <v>41895</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A351" s="17" t="str">
         <f>'IR Calendar'!A352&amp;"-"&amp;'IR Calendar'!B352&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D352</f>
         <v>2014-09 WK 3</v>
@@ -15091,7 +15099,7 @@
         <v>41902</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A352" s="17" t="str">
         <f>'IR Calendar'!A353&amp;"-"&amp;'IR Calendar'!B353&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D353</f>
         <v>2014-09 WK 4</v>
@@ -15107,7 +15115,7 @@
         <v>41909</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A353" s="17" t="str">
         <f>'IR Calendar'!A354&amp;"-"&amp;'IR Calendar'!B354&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D354</f>
         <v>2014-09 WK 5</v>
@@ -15123,7 +15131,7 @@
         <v>41916</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A354" s="17" t="str">
         <f>'IR Calendar'!A355&amp;"-"&amp;'IR Calendar'!B355&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D355</f>
         <v>2014-10 WK 1</v>
@@ -15139,7 +15147,7 @@
         <v>41923</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A355" s="17" t="str">
         <f>'IR Calendar'!A356&amp;"-"&amp;'IR Calendar'!B356&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D356</f>
         <v>2014-10 WK 2</v>
@@ -15155,7 +15163,7 @@
         <v>41930</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A356" s="17" t="str">
         <f>'IR Calendar'!A357&amp;"-"&amp;'IR Calendar'!B357&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D357</f>
         <v>2014-10 WK 3</v>
@@ -15171,7 +15179,7 @@
         <v>41937</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A357" s="17" t="str">
         <f>'IR Calendar'!A358&amp;"-"&amp;'IR Calendar'!B358&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D358</f>
         <v>2014-10 WK 4</v>
@@ -15187,7 +15195,7 @@
         <v>41944</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A358" s="17" t="str">
         <f>'IR Calendar'!A359&amp;"-"&amp;'IR Calendar'!B359&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D359</f>
         <v>2014-11 WK 1</v>
@@ -15203,7 +15211,7 @@
         <v>41951</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A359" s="17" t="str">
         <f>'IR Calendar'!A360&amp;"-"&amp;'IR Calendar'!B360&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D360</f>
         <v>2014-11 WK 2</v>
@@ -15219,7 +15227,7 @@
         <v>41958</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A360" s="17" t="str">
         <f>'IR Calendar'!A361&amp;"-"&amp;'IR Calendar'!B361&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D361</f>
         <v>2014-11 WK 3</v>
@@ -15235,7 +15243,7 @@
         <v>41965</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A361" s="17" t="str">
         <f>'IR Calendar'!A362&amp;"-"&amp;'IR Calendar'!B362&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D362</f>
         <v>2014-11 WK 4</v>
@@ -15251,7 +15259,7 @@
         <v>41972</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A362" s="17" t="str">
         <f>'IR Calendar'!A363&amp;"-"&amp;'IR Calendar'!B363&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D363</f>
         <v>2014-12 WK 1</v>
@@ -15267,7 +15275,7 @@
         <v>41979</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A363" s="17" t="str">
         <f>'IR Calendar'!A364&amp;"-"&amp;'IR Calendar'!B364&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D364</f>
         <v>2014-12 WK 2</v>
@@ -15283,7 +15291,7 @@
         <v>41986</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A364" s="17" t="str">
         <f>'IR Calendar'!A365&amp;"-"&amp;'IR Calendar'!B365&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D365</f>
         <v>2014-12 WK 3</v>
@@ -15299,7 +15307,7 @@
         <v>41993</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A365" s="17" t="str">
         <f>'IR Calendar'!A366&amp;"-"&amp;'IR Calendar'!B366&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D366</f>
         <v>2014-12 WK 4</v>
@@ -15315,7 +15323,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A366" s="17" t="str">
         <f>'IR Calendar'!A367&amp;"-"&amp;'IR Calendar'!B367&amp;" "&amp;"WK"&amp;" "&amp;'IR Calendar'!D367</f>
         <v>2014-12 WK 5</v>
@@ -15332,6 +15340,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -15345,15 +15354,15 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>242</v>
       </c>
@@ -15367,7 +15376,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>244</v>
       </c>
@@ -15381,7 +15390,7 @@
         <v>41272</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>245</v>
       </c>
@@ -15395,7 +15404,7 @@
         <v>41300</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>246</v>
       </c>
@@ -15409,7 +15418,7 @@
         <v>41328</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>247</v>
       </c>
@@ -15423,7 +15432,7 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>248</v>
       </c>
@@ -15437,7 +15446,7 @@
         <v>41391</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>249</v>
       </c>
@@ -15451,7 +15460,7 @@
         <v>41419</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>250</v>
       </c>
@@ -15465,7 +15474,7 @@
         <v>41454</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>251</v>
       </c>
@@ -15479,7 +15488,7 @@
         <v>41482</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>252</v>
       </c>
@@ -15493,7 +15502,7 @@
         <v>41517</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>253</v>
       </c>
@@ -15507,7 +15516,7 @@
         <v>41545</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -15521,7 +15530,7 @@
         <v>41573</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>255</v>
       </c>
@@ -15535,7 +15544,7 @@
         <v>41608</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>256</v>
       </c>
@@ -15549,7 +15558,7 @@
         <v>41636</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>258</v>
       </c>
@@ -15559,11 +15568,11 @@
       <c r="D15">
         <v>201401</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <v>41664</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>259</v>
       </c>
@@ -15573,11 +15582,11 @@
       <c r="D16">
         <v>201402</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <v>41692</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>260</v>
       </c>
@@ -15587,11 +15596,11 @@
       <c r="D17">
         <v>201403</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <v>41727</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>261</v>
       </c>
@@ -15601,11 +15610,11 @@
       <c r="D18">
         <v>201404</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <v>41755</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>262</v>
       </c>
@@ -15615,11 +15624,11 @@
       <c r="D19">
         <v>201405</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="27">
         <v>41790</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>263</v>
       </c>
@@ -15629,11 +15638,11 @@
       <c r="D20">
         <v>201406</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="27">
         <v>41818</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>264</v>
       </c>
@@ -15643,11 +15652,11 @@
       <c r="D21">
         <v>201407</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="27">
         <v>41846</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>265</v>
       </c>
@@ -15657,11 +15666,11 @@
       <c r="D22">
         <v>201408</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="27">
         <v>41881</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>266</v>
       </c>
@@ -15671,11 +15680,11 @@
       <c r="D23">
         <v>201409</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="27">
         <v>41909</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>267</v>
       </c>
@@ -15685,11 +15694,11 @@
       <c r="D24">
         <v>201410</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="27">
         <v>41937</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>268</v>
       </c>
@@ -15699,11 +15708,11 @@
       <c r="D25">
         <v>201411</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="27">
         <v>41972</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>269</v>
       </c>
@@ -15713,11 +15722,11 @@
       <c r="D26">
         <v>201412</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="27">
         <v>42000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>270</v>
       </c>
@@ -15727,12 +15736,13 @@
       <c r="D27">
         <v>201501</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <v>42035</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="D1:E27"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -15884,6 +15894,27 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="f3808412-fd36-4c57-ba26-877dd5bf79bc">HMAZF6M2QDZR-1-2023</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="f3808412-fd36-4c57-ba26-877dd5bf79bc">
+      <Url>http://insite/CO/chinaops/_layouts/DocIdRedir.aspx?ID=HMAZF6M2QDZR-1-2023</Url>
+      <Description>HMAZF6M2QDZR-1-2023</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -15929,39 +15960,46 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="f3808412-fd36-4c57-ba26-877dd5bf79bc">HMAZF6M2QDZR-1-2023</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="f3808412-fd36-4c57-ba26-877dd5bf79bc">
-      <Url>http://insite/CO/chinaops/_layouts/DocIdRedir.aspx?ID=HMAZF6M2QDZR-1-2023</Url>
-      <Description>HMAZF6M2QDZR-1-2023</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA525675-C48F-4E3C-B011-6FCC4643DF10}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA525675-C48F-4E3C-B011-6FCC4643DF10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f3808412-fd36-4c57-ba26-877dd5bf79bc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C72E9E-A61B-4699-A50D-D52D70512F2E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CA6A12-790A-4C18-8605-77DB022F29EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f3808412-fd36-4c57-ba26-877dd5bf79bc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D811643C-F942-4218-B5FD-F24281693AE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D811643C-F942-4218-B5FD-F24281693AE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CA6A12-790A-4C18-8605-77DB022F29EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C72E9E-A61B-4699-A50D-D52D70512F2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>